--- a/processed_data/PDBbind v2020(samples_deleted_phase1).xlsx
+++ b/processed_data/PDBbind v2020(samples_deleted_phase1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="995">
   <si>
     <t>Reason for Deletion</t>
   </si>
@@ -139,6 +139,9 @@
     <t>1hxy</t>
   </si>
   <si>
+    <t>1kbh</t>
+  </si>
+  <si>
     <t>1rvj</t>
   </si>
   <si>
@@ -508,6 +511,9 @@
     <t>Protein-Protein</t>
   </si>
   <si>
+    <t>NMR</t>
+  </si>
+  <si>
     <t>Kd=1uM</t>
   </si>
   <si>
@@ -517,6 +523,9 @@
     <t>Kd=0.5nM</t>
   </si>
   <si>
+    <t>Kd=34nM</t>
+  </si>
+  <si>
     <t>Kd=4uM</t>
   </si>
   <si>
@@ -868,6 +877,9 @@
     <t>STAPHYLOCOCCAL ENTEROTOXIN H</t>
   </si>
   <si>
+    <t>CREB-BINDING PROTEIN</t>
+  </si>
+  <si>
     <t>dark-adapted DN(L213)</t>
   </si>
   <si>
@@ -1213,6 +1225,9 @@
     <t>HUMAN MHC CLASS II(HLA-DR1)</t>
   </si>
   <si>
+    <t>nuclear receptor coactivator ACTR</t>
+  </si>
+  <si>
     <t>RH(H177) revertant RC in the trigonal form</t>
   </si>
   <si>
@@ -1561,6 +1576,9 @@
     <t>d</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>b, a, h, g</t>
   </si>
   <si>
@@ -1771,9 +1789,6 @@
     <t>l</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>d,f</t>
   </si>
   <si>
@@ -1789,6 +1804,9 @@
     <t>11432818</t>
   </si>
   <si>
+    <t>11823864</t>
+  </si>
+  <si>
     <t>15062092</t>
   </si>
   <si>
@@ -2194,6 +2212,9 @@
     <t>The EMBO journal. (2001) 20, pp. 3306-12</t>
   </si>
   <si>
+    <t xml:space="preserve">(2002) Nature Vol. 415: pp. 549-553 </t>
+  </si>
+  <si>
     <t xml:space="preserve">(2004) Structure Vol. 12: pp. 703-715 </t>
   </si>
   <si>
@@ -2531,6 +2552,9 @@
   </si>
   <si>
     <t>P0A0M0 Q03909 P01903 P01911</t>
+  </si>
+  <si>
+    <t>Q9Y6Q9 P45481</t>
   </si>
   <si>
     <t>P0C0Y7 P0C0Y8 P0C0Y9</t>
@@ -3344,7 +3368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ125"/>
+  <dimension ref="A1:AJ126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3471,16 +3495,16 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F2">
         <v>1.66</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -3489,31 +3513,31 @@
         <v>2001</v>
       </c>
       <c r="J2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="P2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="S2" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="T2" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -3527,16 +3551,16 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F3">
         <v>3.2</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -3545,31 +3569,31 @@
         <v>2001</v>
       </c>
       <c r="J3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L3" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M3" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="P3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S3" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="T3" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -3583,16 +3607,16 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F4">
         <v>2.6</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H4">
         <v>9.300000000000001</v>
@@ -3601,36 +3625,36 @@
         <v>2001</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L4" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M4" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="P4" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S4" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="T4" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="1">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -3639,48 +3663,54 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5">
-        <v>2.75</v>
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5">
-        <v>5.4</v>
+        <v>7.47</v>
       </c>
       <c r="I5">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="J5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K5" t="s">
-        <v>399</v>
+        <v>403</v>
+      </c>
+      <c r="L5" t="s">
+        <v>520</v>
+      </c>
+      <c r="M5" t="s">
+        <v>552</v>
       </c>
       <c r="P5" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S5" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="T5" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="1">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -3689,63 +3719,48 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F6">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H6">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I6">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="J6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L6" t="s">
-        <v>515</v>
-      </c>
-      <c r="M6" t="s">
-        <v>550</v>
+        <v>404</v>
       </c>
       <c r="P6" t="s">
-        <v>592</v>
+        <v>597</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="S6" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="T6" t="s">
-        <v>840</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="1">
-        <v>405</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -3754,54 +3769,63 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F7">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I7">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="J7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="M7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="P7" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="R7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="S7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="T7" t="s">
-        <v>841</v>
+        <v>848</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="1">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -3810,54 +3834,54 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="J8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L8" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M8" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="P8" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S8" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="T8" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="1">
-        <v>723</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -3866,48 +3890,54 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H9">
-        <v>7.44</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="J9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K9" t="s">
-        <v>403</v>
+        <v>407</v>
+      </c>
+      <c r="L9" t="s">
+        <v>523</v>
+      </c>
+      <c r="M9" t="s">
+        <v>528</v>
       </c>
       <c r="P9" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S9" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="T9" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="1">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -3916,60 +3946,48 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F10">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H10">
-        <v>5.33</v>
+        <v>7.44</v>
       </c>
       <c r="I10">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="J10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P10" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q10">
-        <v>53813027</v>
+        <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S10" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="T10" t="s">
-        <v>844</v>
-      </c>
-      <c r="AA10">
-        <v>4.26</v>
-      </c>
-      <c r="AC10">
-        <v>9</v>
-      </c>
-      <c r="AD10">
-        <v>10</v>
-      </c>
-      <c r="AE10">
-        <v>34</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="1">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -3978,48 +3996,60 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F11">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H11">
-        <v>6.6</v>
+        <v>5.33</v>
       </c>
       <c r="I11">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="J11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P11" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>53813027</v>
       </c>
       <c r="R11" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S11" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="T11" t="s">
-        <v>845</v>
+        <v>852</v>
+      </c>
+      <c r="AA11">
+        <v>4.26</v>
+      </c>
+      <c r="AC11">
+        <v>9</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="1">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -4028,66 +4058,48 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F12">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H12">
-        <v>5.31</v>
+        <v>6.6</v>
       </c>
       <c r="I12">
         <v>2008</v>
       </c>
       <c r="J12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K12" t="s">
-        <v>404</v>
-      </c>
-      <c r="L12" t="s">
-        <v>518</v>
-      </c>
-      <c r="M12" t="s">
-        <v>552</v>
+        <v>410</v>
       </c>
       <c r="P12" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Q12">
-        <v>87557443</v>
+        <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S12" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="T12" t="s">
-        <v>846</v>
-      </c>
-      <c r="AA12">
-        <v>1.66</v>
-      </c>
-      <c r="AC12">
-        <v>11</v>
-      </c>
-      <c r="AD12">
-        <v>11</v>
-      </c>
-      <c r="AE12">
-        <v>39</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="1">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -4096,54 +4108,66 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F13">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H13">
-        <v>8.68</v>
+        <v>5.31</v>
       </c>
       <c r="I13">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="J13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L13" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M13" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="P13" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>87557443</v>
       </c>
       <c r="R13" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S13" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="T13" t="s">
-        <v>847</v>
+        <v>854</v>
+      </c>
+      <c r="AA13">
+        <v>1.66</v>
+      </c>
+      <c r="AC13">
+        <v>11</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="1">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -4152,54 +4176,54 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14">
-        <v>3.25</v>
+        <v>8.68</v>
       </c>
       <c r="I14">
         <v>2009</v>
       </c>
       <c r="J14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L14" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="M14" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P14" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S14" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="T14" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="1">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -4208,48 +4232,54 @@
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H15">
-        <v>7.1</v>
+        <v>3.25</v>
       </c>
       <c r="I15">
         <v>2009</v>
       </c>
       <c r="J15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K15" t="s">
-        <v>408</v>
+        <v>412</v>
+      </c>
+      <c r="L15" t="s">
+        <v>526</v>
+      </c>
+      <c r="M15" t="s">
+        <v>560</v>
       </c>
       <c r="P15" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="S15" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="T15" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="1">
-        <v>873</v>
+        <v>800</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -4258,54 +4288,48 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F16">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H16">
-        <v>8.48</v>
+        <v>7.1</v>
       </c>
       <c r="I16">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="J16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K16" t="s">
-        <v>409</v>
-      </c>
-      <c r="L16" t="s">
-        <v>521</v>
-      </c>
-      <c r="M16" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="P16" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="S16" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="T16" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1">
-        <v>906</v>
+        <v>873</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -4314,54 +4338,54 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F17">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H17">
-        <v>3.99</v>
+        <v>8.48</v>
       </c>
       <c r="I17">
         <v>2008</v>
       </c>
       <c r="J17" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K17" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L17" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="M17" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="P17" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="S17" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="T17" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -4370,60 +4394,54 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F18">
-        <v>2.21</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H18">
-        <v>8.4</v>
+        <v>3.99</v>
       </c>
       <c r="I18">
         <v>2008</v>
       </c>
       <c r="J18" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M18" t="s">
-        <v>554</v>
-      </c>
-      <c r="N18" t="s">
-        <v>514</v>
-      </c>
-      <c r="O18" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="P18" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S18" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="T18" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -4432,60 +4450,60 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F19">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H19">
-        <v>5.78</v>
+        <v>8.4</v>
       </c>
       <c r="I19">
         <v>2008</v>
       </c>
       <c r="J19" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K19" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L19" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M19" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="N19" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="O19" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="P19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="S19" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="T19" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -4494,60 +4512,60 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F20">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H20">
-        <v>5.06</v>
+        <v>5.78</v>
       </c>
       <c r="I20">
         <v>2008</v>
       </c>
       <c r="J20" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K20" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L20" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M20" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="N20" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="O20" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="P20" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="S20" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="T20" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -4556,60 +4574,60 @@
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F21">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H21">
-        <v>5.99</v>
+        <v>5.06</v>
       </c>
       <c r="I21">
         <v>2008</v>
       </c>
       <c r="J21" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K21" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L21" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M21" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="N21" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="O21" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="P21" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="S21" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="T21" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -4618,48 +4636,60 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F22">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H22">
-        <v>5.09</v>
+        <v>5.99</v>
       </c>
       <c r="I22">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K22" t="s">
-        <v>414</v>
+        <v>417</v>
+      </c>
+      <c r="L22" t="s">
+        <v>529</v>
+      </c>
+      <c r="M22" t="s">
+        <v>562</v>
+      </c>
+      <c r="N22" t="s">
+        <v>572</v>
+      </c>
+      <c r="O22" t="s">
+        <v>590</v>
       </c>
       <c r="P22" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="S22" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="T22" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -4668,54 +4698,48 @@
         <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F23">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H23">
-        <v>6.52</v>
+        <v>5.09</v>
       </c>
       <c r="I23">
         <v>2009</v>
       </c>
       <c r="J23" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K23" t="s">
-        <v>415</v>
-      </c>
-      <c r="L23" t="s">
-        <v>524</v>
-      </c>
-      <c r="M23" t="s">
-        <v>557</v>
+        <v>419</v>
       </c>
       <c r="P23" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S23" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="T23" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -4724,54 +4748,54 @@
         <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H24">
-        <v>6.94</v>
+        <v>6.52</v>
       </c>
       <c r="I24">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="J24" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K24" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L24" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M24" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="P24" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S24" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="T24" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1">
-        <v>1014</v>
+        <v>950</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -4780,48 +4804,54 @@
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F25">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H25">
-        <v>4.82</v>
+        <v>6.94</v>
       </c>
       <c r="I25">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="J25" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K25" t="s">
-        <v>417</v>
+        <v>421</v>
+      </c>
+      <c r="L25" t="s">
+        <v>531</v>
+      </c>
+      <c r="M25" t="s">
+        <v>564</v>
       </c>
       <c r="P25" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S25" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="T25" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -4830,54 +4860,48 @@
         <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F26">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H26">
-        <v>7.34</v>
+        <v>4.82</v>
       </c>
       <c r="I26">
         <v>2009</v>
       </c>
       <c r="J26" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K26" t="s">
-        <v>418</v>
-      </c>
-      <c r="L26" t="s">
-        <v>526</v>
-      </c>
-      <c r="M26" t="s">
-        <v>559</v>
+        <v>422</v>
       </c>
       <c r="P26" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S26" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="T26" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1">
-        <v>1049</v>
+        <v>1020</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -4886,54 +4910,54 @@
         <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F27">
         <v>2.9</v>
       </c>
       <c r="G27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>7.34</v>
       </c>
       <c r="I27">
         <v>2009</v>
       </c>
       <c r="J27" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L27" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="M27" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P27" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="S27" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="T27" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -4942,54 +4966,54 @@
         <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F28">
         <v>2.9</v>
       </c>
       <c r="G28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H28">
-        <v>11.52</v>
+        <v>12</v>
       </c>
       <c r="I28">
         <v>2009</v>
       </c>
       <c r="J28" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K28" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L28" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M28" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="P28" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="S28" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="T28" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -4998,54 +5022,54 @@
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F29">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H29">
-        <v>11.15</v>
+        <v>11.52</v>
       </c>
       <c r="I29">
         <v>2009</v>
       </c>
       <c r="J29" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K29" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L29" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M29" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="P29" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="S29" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="T29" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -5054,54 +5078,54 @@
         <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F30">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H30">
-        <v>4.57</v>
+        <v>11.15</v>
       </c>
       <c r="I30">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="J30" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L30" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="M30" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="P30" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="S30" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="T30" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1">
-        <v>1096</v>
+        <v>1076</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -5110,51 +5134,54 @@
         <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F31">
-        <v>1.99</v>
+        <v>3.1</v>
       </c>
       <c r="G31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H31">
-        <v>8.82</v>
+        <v>4.57</v>
       </c>
       <c r="I31">
         <v>2010</v>
       </c>
       <c r="J31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L31" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="M31" t="s">
-        <v>562</v>
+        <v>567</v>
+      </c>
+      <c r="P31" t="s">
+        <v>618</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S31" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="T31" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1">
-        <v>1174</v>
+        <v>1096</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -5163,60 +5190,51 @@
         <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F32">
-        <v>2.6</v>
+        <v>1.99</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H32">
-        <v>7.3</v>
+        <v>8.82</v>
       </c>
       <c r="I32">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L32" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M32" t="s">
-        <v>563</v>
-      </c>
-      <c r="N32" t="s">
-        <v>546</v>
-      </c>
-      <c r="O32" t="s">
-        <v>585</v>
-      </c>
-      <c r="P32" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S32" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="T32" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
-        <v>1226</v>
+        <v>1174</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -5225,54 +5243,60 @@
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F33">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H33">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="I33">
         <v>2011</v>
       </c>
       <c r="J33" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L33" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="M33" t="s">
-        <v>564</v>
+        <v>569</v>
+      </c>
+      <c r="N33" t="s">
+        <v>552</v>
+      </c>
+      <c r="O33" t="s">
+        <v>520</v>
       </c>
       <c r="P33" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S33" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="T33" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
-        <v>1255</v>
+        <v>1226</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -5281,54 +5305,54 @@
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F34">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H34">
-        <v>4.51</v>
+        <v>5.7</v>
       </c>
       <c r="I34">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L34" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M34" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="P34" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S34" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="T34" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -5337,54 +5361,54 @@
         <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F35">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="G35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H35">
-        <v>4.77</v>
+        <v>4.51</v>
       </c>
       <c r="I35">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L35" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="M35" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="P35" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S35" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="T35" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
-        <v>1436</v>
+        <v>1269</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -5393,31 +5417,37 @@
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F36">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H36">
-        <v>5.42</v>
+        <v>4.77</v>
       </c>
       <c r="I36">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>426</v>
+        <v>430</v>
+      </c>
+      <c r="L36" t="s">
+        <v>539</v>
+      </c>
+      <c r="M36" t="s">
+        <v>572</v>
       </c>
       <c r="P36" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -5426,15 +5456,15 @@
         <v>702</v>
       </c>
       <c r="S36" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="T36" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
-        <v>1485</v>
+        <v>1436</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -5443,54 +5473,48 @@
         <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F37">
-        <v>2.63</v>
+        <v>4.8</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H37">
-        <v>6.96</v>
+        <v>5.42</v>
       </c>
       <c r="I37">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>427</v>
-      </c>
-      <c r="L37" t="s">
-        <v>534</v>
-      </c>
-      <c r="M37" t="s">
-        <v>567</v>
+        <v>431</v>
       </c>
       <c r="P37" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="S37" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="T37" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -5499,48 +5523,54 @@
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F38">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="G38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H38">
-        <v>8.44</v>
+        <v>6.96</v>
       </c>
       <c r="I38">
         <v>2012</v>
       </c>
       <c r="J38" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s">
-        <v>428</v>
+        <v>432</v>
+      </c>
+      <c r="L38" t="s">
+        <v>540</v>
+      </c>
+      <c r="M38" t="s">
+        <v>573</v>
       </c>
       <c r="P38" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="S38" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="T38" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -5549,45 +5579,48 @@
         <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="G39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H39">
-        <v>3.52</v>
+        <v>8.44</v>
       </c>
       <c r="I39">
         <v>2012</v>
       </c>
       <c r="J39" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K39" t="s">
-        <v>429</v>
-      </c>
-      <c r="M39" t="s">
-        <v>568</v>
+        <v>433</v>
+      </c>
+      <c r="P39" t="s">
+        <v>625</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="S39" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>762</v>
+      </c>
+      <c r="T39" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
-        <v>1539</v>
+        <v>1497</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
@@ -5596,54 +5629,45 @@
         <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F40">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H40">
-        <v>7.68</v>
+        <v>3.52</v>
       </c>
       <c r="I40">
         <v>2012</v>
       </c>
       <c r="J40" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
-        <v>430</v>
-      </c>
-      <c r="L40" t="s">
-        <v>535</v>
+        <v>434</v>
       </c>
       <c r="M40" t="s">
-        <v>569</v>
-      </c>
-      <c r="P40" t="s">
-        <v>620</v>
+        <v>574</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="S40" t="s">
-        <v>757</v>
-      </c>
-      <c r="T40" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -5652,48 +5676,54 @@
         <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F41">
-        <v>2.49</v>
+        <v>3.75</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H41">
-        <v>5.56</v>
+        <v>7.68</v>
       </c>
       <c r="I41">
         <v>2012</v>
       </c>
       <c r="J41" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s">
-        <v>431</v>
+        <v>435</v>
+      </c>
+      <c r="L41" t="s">
+        <v>541</v>
+      </c>
+      <c r="M41" t="s">
+        <v>575</v>
       </c>
       <c r="P41" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="S41" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="T41" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -5702,54 +5732,48 @@
         <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F42">
-        <v>2.64</v>
+        <v>2.49</v>
       </c>
       <c r="G42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H42">
-        <v>7.68</v>
+        <v>5.56</v>
       </c>
       <c r="I42">
         <v>2012</v>
       </c>
       <c r="J42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K42" t="s">
-        <v>319</v>
-      </c>
-      <c r="L42" t="s">
-        <v>536</v>
-      </c>
-      <c r="M42" t="s">
-        <v>570</v>
+        <v>436</v>
       </c>
       <c r="P42" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="S42" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="T42" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
-        <v>1595</v>
+        <v>1551</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
@@ -5758,54 +5782,54 @@
         <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H43">
-        <v>6.32</v>
+        <v>7.68</v>
       </c>
       <c r="I43">
         <v>2012</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K43" t="s">
-        <v>432</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M43" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="P43" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S43" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="T43" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
-        <v>1730</v>
+        <v>1595</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
@@ -5814,54 +5838,54 @@
         <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F44">
-        <v>2.19</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H44">
-        <v>7.39</v>
+        <v>6.32</v>
       </c>
       <c r="I44">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J44" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K44" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L44" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="M44" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="P44" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S44" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="T44" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
-        <v>1858</v>
+        <v>1730</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -5870,54 +5894,54 @@
         <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F45">
-        <v>3.28</v>
+        <v>2.19</v>
       </c>
       <c r="G45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H45">
-        <v>5.52</v>
+        <v>7.39</v>
       </c>
       <c r="I45">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="J45" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K45" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="M45" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="P45" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S45" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="T45" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="B46" t="s">
         <v>36</v>
@@ -5926,60 +5950,54 @@
         <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F46">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="G46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H46">
-        <v>6.46</v>
+        <v>5.52</v>
       </c>
       <c r="I46">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J46" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L46" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="M46" t="s">
-        <v>570</v>
-      </c>
-      <c r="N46" t="s">
-        <v>582</v>
-      </c>
-      <c r="O46" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="P46" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S46" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="T46" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="B47" t="s">
         <v>36</v>
@@ -5988,54 +6006,60 @@
         <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F47">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="G47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H47">
-        <v>6.04</v>
+        <v>6.46</v>
       </c>
       <c r="I47">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="J47" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="M47" t="s">
-        <v>574</v>
+        <v>576</v>
+      </c>
+      <c r="N47" t="s">
+        <v>588</v>
+      </c>
+      <c r="O47" t="s">
+        <v>591</v>
       </c>
       <c r="P47" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="S47" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="T47" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
-        <v>1901</v>
+        <v>1866</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
@@ -6044,72 +6068,54 @@
         <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F48">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="G48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H48">
-        <v>4.66</v>
+        <v>6.04</v>
       </c>
       <c r="I48">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J48" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K48" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L48" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M48" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="P48" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="S48" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="T48" t="s">
-        <v>877</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
-        <v>2064</v>
+        <v>1901</v>
       </c>
       <c r="B49" t="s">
         <v>36</v>
@@ -6118,49 +6124,49 @@
         <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F49">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H49">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
       <c r="I49">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J49" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M49" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="P49" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="S49" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="T49" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -6181,9 +6187,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
-        <v>2131</v>
+        <v>2064</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -6192,43 +6198,49 @@
         <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F50">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H50">
-        <v>10.41</v>
+        <v>4.55</v>
       </c>
       <c r="I50">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J50" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K50" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="L50" t="s">
+        <v>549</v>
+      </c>
+      <c r="M50" t="s">
+        <v>582</v>
       </c>
       <c r="P50" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S50" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="T50" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -6249,9 +6261,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B51" t="s">
         <v>36</v>
@@ -6260,43 +6272,43 @@
         <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F51">
         <v>2.5</v>
       </c>
       <c r="G51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H51">
-        <v>7.15</v>
+        <v>10.41</v>
       </c>
       <c r="I51">
         <v>2016</v>
       </c>
       <c r="J51" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K51" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P51" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S51" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="T51" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -6317,9 +6329,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
-        <v>2269</v>
+        <v>2133</v>
       </c>
       <c r="B52" t="s">
         <v>36</v>
@@ -6328,43 +6340,43 @@
         <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F52">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G52" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H52">
-        <v>7.33</v>
+        <v>7.15</v>
       </c>
       <c r="I52">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J52" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P52" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S52" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="T52" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -6385,9 +6397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
-        <v>2391</v>
+        <v>2269</v>
       </c>
       <c r="B53" t="s">
         <v>36</v>
@@ -6396,49 +6408,43 @@
         <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F53">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H53">
-        <v>9.380000000000001</v>
+        <v>7.33</v>
       </c>
       <c r="I53">
         <v>2017</v>
       </c>
       <c r="J53" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K53" t="s">
-        <v>442</v>
-      </c>
-      <c r="L53" t="s">
-        <v>544</v>
-      </c>
-      <c r="M53" t="s">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="P53" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S53" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="T53" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -6459,9 +6465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
-        <v>2410</v>
+        <v>2391</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
@@ -6470,37 +6476,37 @@
         <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F54">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="G54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H54">
-        <v>6.95</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I54">
         <v>2017</v>
       </c>
       <c r="J54" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K54" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M54" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="P54" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -6509,10 +6515,10 @@
         <v>702</v>
       </c>
       <c r="S54" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="T54" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -6533,9 +6539,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
-        <v>2515</v>
+        <v>2410</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
@@ -6544,49 +6550,49 @@
         <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F55">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="G55" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H55">
-        <v>5.77</v>
+        <v>6.95</v>
       </c>
       <c r="I55">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J55" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K55" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="M55" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="P55" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="S55" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="T55" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -6607,9 +6613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
-        <v>2524</v>
+        <v>2515</v>
       </c>
       <c r="B56" t="s">
         <v>36</v>
@@ -6618,43 +6624,49 @@
         <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F56">
-        <v>1.36</v>
+        <v>2.3</v>
       </c>
       <c r="G56" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H56">
-        <v>3.66</v>
+        <v>5.77</v>
       </c>
       <c r="I56">
         <v>2018</v>
       </c>
       <c r="J56" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K56" t="s">
-        <v>445</v>
+        <v>449</v>
+      </c>
+      <c r="L56" t="s">
+        <v>552</v>
+      </c>
+      <c r="M56" t="s">
+        <v>584</v>
       </c>
       <c r="P56" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S56" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="T56" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -6675,9 +6687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
-        <v>2605</v>
+        <v>2524</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
@@ -6686,40 +6698,43 @@
         <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F57">
-        <v>5.8</v>
+        <v>1.36</v>
       </c>
       <c r="G57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H57">
-        <v>6.2</v>
+        <v>3.66</v>
       </c>
       <c r="I57">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J57" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P57" t="s">
-        <v>637</v>
+        <v>642</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
       </c>
       <c r="R57" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S57" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="T57" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -6727,16 +6742,22 @@
       <c r="W57">
         <v>0</v>
       </c>
-      <c r="AA57">
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
         <v>0</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
-        <v>2652</v>
+        <v>2605</v>
       </c>
       <c r="B58" t="s">
         <v>36</v>
@@ -6745,52 +6766,40 @@
         <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F58">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="G58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H58">
-        <v>5.48</v>
+        <v>6.2</v>
       </c>
       <c r="I58">
         <v>2019</v>
       </c>
       <c r="J58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K58" t="s">
-        <v>447</v>
-      </c>
-      <c r="L58" t="s">
-        <v>522</v>
-      </c>
-      <c r="M58" t="s">
-        <v>579</v>
-      </c>
-      <c r="N58" t="s">
-        <v>583</v>
-      </c>
-      <c r="O58" t="s">
-        <v>587</v>
+        <v>451</v>
       </c>
       <c r="P58" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="R58" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="S58" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="T58" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -6805,9 +6814,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="B59" t="s">
         <v>36</v>
@@ -6816,46 +6825,52 @@
         <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F59">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="G59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H59">
-        <v>6.8</v>
+        <v>5.48</v>
       </c>
       <c r="I59">
         <v>2019</v>
       </c>
       <c r="J59" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K59" t="s">
-        <v>448</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
+        <v>452</v>
+      </c>
+      <c r="L59" t="s">
+        <v>528</v>
       </c>
       <c r="M59" t="s">
-        <v>580</v>
+        <v>585</v>
+      </c>
+      <c r="N59" t="s">
+        <v>589</v>
+      </c>
+      <c r="O59" t="s">
+        <v>592</v>
       </c>
       <c r="P59" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="R59" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="S59" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="T59" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -6870,9 +6885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
-        <v>2662</v>
+        <v>2656</v>
       </c>
       <c r="B60" t="s">
         <v>36</v>
@@ -6881,43 +6896,46 @@
         <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F60">
-        <v>4.99</v>
+        <v>7.8</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H60">
-        <v>7.08</v>
+        <v>6.8</v>
       </c>
       <c r="I60">
         <v>2019</v>
       </c>
       <c r="J60" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K60" t="s">
-        <v>449</v>
+        <v>453</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="P60" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="R60" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="S60" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="T60" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -6932,9 +6950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
-        <v>2733</v>
+        <v>2662</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
@@ -6943,46 +6961,43 @@
         <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F61">
-        <v>3.4</v>
+        <v>4.99</v>
       </c>
       <c r="G61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H61">
-        <v>6.62</v>
+        <v>7.08</v>
       </c>
       <c r="I61">
         <v>2019</v>
       </c>
       <c r="J61" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K61" t="s">
-        <v>450</v>
-      </c>
-      <c r="L61" t="s">
-        <v>547</v>
+        <v>454</v>
       </c>
       <c r="M61" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="P61" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="R61" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="S61" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="T61" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6997,9 +7012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
-        <v>2756</v>
+        <v>2733</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
@@ -7008,34 +7023,46 @@
         <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F62">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="G62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H62">
-        <v>6.57</v>
+        <v>6.62</v>
       </c>
       <c r="I62">
         <v>2019</v>
       </c>
+      <c r="J62" t="s">
+        <v>342</v>
+      </c>
+      <c r="K62" t="s">
+        <v>455</v>
+      </c>
+      <c r="L62" t="s">
+        <v>553</v>
+      </c>
+      <c r="M62" t="s">
+        <v>570</v>
+      </c>
       <c r="P62" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="R62" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S62" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="T62" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -7050,9 +7077,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
-        <v>2791</v>
+        <v>2756</v>
       </c>
       <c r="B63" t="s">
         <v>36</v>
@@ -7061,40 +7088,34 @@
         <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F63">
-        <v>3.59</v>
+        <v>2.6</v>
       </c>
       <c r="G63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H63">
-        <v>8.619999999999999</v>
+        <v>6.57</v>
       </c>
       <c r="I63">
         <v>2019</v>
       </c>
-      <c r="J63" t="s">
-        <v>339</v>
-      </c>
-      <c r="K63" t="s">
-        <v>451</v>
-      </c>
-      <c r="L63" t="s">
-        <v>548</v>
-      </c>
       <c r="P63" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="R63" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S63" t="s">
-        <v>780</v>
+        <v>786</v>
+      </c>
+      <c r="T63" t="s">
+        <v>899</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -7109,65 +7130,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>2791</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
         <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F64">
-        <v>2.6</v>
+        <v>3.59</v>
       </c>
       <c r="G64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H64">
-        <v>7.1</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I64">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="J64" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K64" t="s">
-        <v>452</v>
+        <v>456</v>
+      </c>
+      <c r="L64" t="s">
+        <v>554</v>
       </c>
       <c r="P64" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="R64" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S64" t="s">
-        <v>781</v>
-      </c>
-      <c r="T64" t="s">
-        <v>892</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>585</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>546</v>
+        <v>787</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -7176,54 +7200,54 @@
         <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F65">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="G65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="I65">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="J65" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P65" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S65" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="T65" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="AG65" t="s">
-        <v>947</v>
+        <v>520</v>
       </c>
       <c r="AH65" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -7232,54 +7256,54 @@
         <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="G66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H66">
-        <v>7.49</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J66" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K66" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s">
-        <v>646</v>
+        <v>651</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
       </c>
       <c r="R66" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S66" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="T66" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="AG66" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="AH66" t="s">
-        <v>519</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>974</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -7288,54 +7312,54 @@
         <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F67">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H67">
-        <v>6.56</v>
+        <v>7.49</v>
       </c>
       <c r="I67">
         <v>2004</v>
       </c>
       <c r="J67" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K67" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P67" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q67">
-        <v>46393114</v>
+        <v>652</v>
       </c>
       <c r="R67" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S67" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="T67" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="AG67" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="AH67" t="s">
-        <v>964</v>
+        <v>525</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -7344,54 +7368,54 @@
         <v>104</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F68">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="G68" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H68">
-        <v>10.92</v>
+        <v>6.56</v>
       </c>
       <c r="I68">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="J68" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K68" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P68" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>46393114</v>
       </c>
       <c r="R68" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="S68" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="T68" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="AG68" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="AH68" t="s">
-        <v>564</v>
+        <v>972</v>
       </c>
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -7400,54 +7424,54 @@
         <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F69">
         <v>1.9</v>
       </c>
       <c r="G69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H69">
-        <v>8.220000000000001</v>
+        <v>10.92</v>
       </c>
       <c r="I69">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="J69" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K69" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P69" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="S69" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="T69" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="AG69" t="s">
-        <v>549</v>
+        <v>958</v>
       </c>
       <c r="AH69" t="s">
-        <v>955</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -7456,54 +7480,54 @@
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F70">
         <v>1.9</v>
       </c>
       <c r="G70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H70">
-        <v>5.09</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I70">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="J70" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K70" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P70" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S70" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="T70" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="AG70" t="s">
-        <v>951</v>
+        <v>555</v>
       </c>
       <c r="AH70" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
@@ -7512,54 +7536,54 @@
         <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F71">
         <v>1.9</v>
       </c>
       <c r="G71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H71">
-        <v>8.23</v>
+        <v>5.09</v>
       </c>
       <c r="I71">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="J71" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K71" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="P71" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S71" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="T71" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="AG71" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="AH71" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
@@ -7568,54 +7592,54 @@
         <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F72">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H72">
-        <v>8.52</v>
+        <v>8.23</v>
       </c>
       <c r="I72">
         <v>2004</v>
       </c>
       <c r="J72" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K72" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P72" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="S72" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="T72" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="AG72" t="s">
-        <v>531</v>
+        <v>960</v>
       </c>
       <c r="AH72" t="s">
-        <v>549</v>
+        <v>973</v>
       </c>
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -7624,54 +7648,54 @@
         <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F73">
-        <v>2.91</v>
+        <v>2.2</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H73">
-        <v>6.22</v>
+        <v>8.52</v>
       </c>
       <c r="I73">
         <v>2004</v>
       </c>
       <c r="J73" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K73" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P73" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="S73" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="T73" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="AG73" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AH73" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
@@ -7680,54 +7704,54 @@
         <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F74">
-        <v>2.6</v>
+        <v>2.91</v>
       </c>
       <c r="G74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H74">
-        <v>6.7</v>
+        <v>6.22</v>
       </c>
       <c r="I74">
         <v>2004</v>
       </c>
       <c r="J74" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K74" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P74" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="S74" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="T74" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="AG74" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AH74" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
@@ -7736,54 +7760,54 @@
         <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F75">
         <v>2.6</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H75">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="I75">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="J75" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K75" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P75" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="S75" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="T75" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="AG75" t="s">
-        <v>950</v>
+        <v>537</v>
       </c>
       <c r="AH75" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
@@ -7792,54 +7816,54 @@
         <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F76">
         <v>2.6</v>
       </c>
       <c r="G76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H76">
-        <v>8.890000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I76">
         <v>2005</v>
       </c>
       <c r="J76" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K76" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P76" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="S76" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="T76" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="AG76" t="s">
-        <v>585</v>
+        <v>958</v>
       </c>
       <c r="AH76" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -7848,54 +7872,54 @@
         <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F77">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H77">
-        <v>5.22</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I77">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="J77" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K77" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P77" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="S77" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="T77" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="AG77" t="s">
-        <v>950</v>
+        <v>520</v>
       </c>
       <c r="AH77" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
@@ -7904,54 +7928,54 @@
         <v>114</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F78">
-        <v>2.41</v>
+        <v>1.87</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H78">
-        <v>7.21</v>
+        <v>5.22</v>
       </c>
       <c r="I78">
         <v>2006</v>
       </c>
       <c r="J78" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K78" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P78" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="S78" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="T78" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="AG78" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="AH78" t="s">
-        <v>966</v>
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
@@ -7960,54 +7984,54 @@
         <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F79">
         <v>2.41</v>
       </c>
       <c r="G79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H79">
-        <v>7.3</v>
+        <v>7.21</v>
       </c>
       <c r="I79">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="J79" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K79" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="P79" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S79" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="T79" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="AG79" t="s">
-        <v>585</v>
+        <v>961</v>
       </c>
       <c r="AH79" t="s">
-        <v>546</v>
+        <v>974</v>
       </c>
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>715</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -8016,66 +8040,54 @@
         <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="G80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H80">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="I80">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="J80" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K80" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P80" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="S80" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="T80" t="s">
-        <v>906</v>
-      </c>
-      <c r="AA80">
-        <v>-4.89</v>
-      </c>
-      <c r="AC80">
-        <v>3</v>
-      </c>
-      <c r="AD80">
-        <v>10</v>
-      </c>
-      <c r="AE80">
-        <v>7</v>
+        <v>913</v>
       </c>
       <c r="AG80" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
       <c r="AH80" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>776</v>
+        <v>715</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
@@ -8084,54 +8096,66 @@
         <v>117</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F81">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="G81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H81">
-        <v>6.85</v>
+        <v>6.3</v>
       </c>
       <c r="I81">
         <v>2008</v>
       </c>
       <c r="J81" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K81" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P81" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="S81" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="T81" t="s">
-        <v>907</v>
+        <v>914</v>
+      </c>
+      <c r="AA81">
+        <v>-4.89</v>
+      </c>
+      <c r="AC81">
+        <v>3</v>
+      </c>
+      <c r="AD81">
+        <v>10</v>
+      </c>
+      <c r="AE81">
+        <v>7</v>
       </c>
       <c r="AG81" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="AH81" t="s">
-        <v>967</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>841</v>
+        <v>776</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
@@ -8140,54 +8164,54 @@
         <v>118</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F82">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H82">
-        <v>7.59</v>
+        <v>6.85</v>
       </c>
       <c r="I82">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="J82" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K82" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P82" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="Q82">
         <v>0</v>
       </c>
       <c r="R82" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="S82" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="T82" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="AG82" t="s">
-        <v>954</v>
+        <v>570</v>
       </c>
       <c r="AH82" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
@@ -8196,54 +8220,54 @@
         <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F83">
-        <v>1.7</v>
+        <v>2.24</v>
       </c>
       <c r="G83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H83">
-        <v>7.89</v>
+        <v>7.59</v>
       </c>
       <c r="I83">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="J83" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K83" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P83" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="S83" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="T83" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="AG83" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="AH83" t="s">
-        <v>564</v>
+        <v>976</v>
       </c>
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="1">
-        <v>889</v>
+        <v>850</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -8252,54 +8276,54 @@
         <v>120</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F84">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="G84" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H84">
-        <v>7.19</v>
+        <v>7.89</v>
       </c>
       <c r="I84">
         <v>2008</v>
       </c>
       <c r="J84" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K84" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P84" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="S84" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="T84" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="AG84" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="AH84" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="1">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
@@ -8308,54 +8332,54 @@
         <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F85">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="G85" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H85">
-        <v>7.44</v>
+        <v>7.19</v>
       </c>
       <c r="I85">
         <v>2008</v>
       </c>
       <c r="J85" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K85" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P85" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="S85" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="T85" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="AG85" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="AH85" t="s">
-        <v>968</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:35">
       <c r="A86" s="1">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -8364,54 +8388,54 @@
         <v>122</v>
       </c>
       <c r="D86" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F86">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H86">
-        <v>7.33</v>
+        <v>7.44</v>
       </c>
       <c r="I86">
         <v>2008</v>
       </c>
       <c r="J86" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K86" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P86" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="S86" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="T86" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="AG86" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="AH86" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="1">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -8420,54 +8444,54 @@
         <v>123</v>
       </c>
       <c r="D87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F87">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H87">
-        <v>8.300000000000001</v>
+        <v>7.33</v>
       </c>
       <c r="I87">
         <v>2008</v>
       </c>
       <c r="J87" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K87" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P87" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="S87" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="T87" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="AG87" t="s">
-        <v>585</v>
+        <v>962</v>
       </c>
       <c r="AH87" t="s">
-        <v>546</v>
+        <v>976</v>
       </c>
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="1">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -8476,54 +8500,54 @@
         <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F88">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H88">
-        <v>9.220000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I88">
         <v>2008</v>
       </c>
       <c r="J88" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P88" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S88" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="T88" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="AG88" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
       <c r="AH88" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="1">
-        <v>956</v>
+        <v>904</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -8532,57 +8556,54 @@
         <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F89">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H89">
-        <v>5.18</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I89">
         <v>2008</v>
       </c>
       <c r="J89" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K89" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="P89" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S89" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="T89" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="AG89" t="s">
-        <v>575</v>
+        <v>520</v>
       </c>
       <c r="AH89" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI89" t="s">
-        <v>975</v>
+        <v>552</v>
       </c>
     </row>
     <row r="90" spans="1:35">
       <c r="A90" s="1">
-        <v>1042</v>
+        <v>956</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -8591,54 +8612,57 @@
         <v>126</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F90">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="G90" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H90">
-        <v>6.3</v>
+        <v>5.18</v>
       </c>
       <c r="I90">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="J90" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K90" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="P90" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S90" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="T90" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="AG90" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AH90" t="s">
-        <v>546</v>
+        <v>549</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="91" spans="1:35">
       <c r="A91" s="1">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -8647,54 +8671,54 @@
         <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F91">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G91" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H91">
-        <v>5.64</v>
+        <v>6.3</v>
       </c>
       <c r="I91">
         <v>2009</v>
       </c>
       <c r="J91" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K91" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P91" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="S91" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="T91" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="AG91" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
       <c r="AH91" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:35">
       <c r="A92" s="1">
-        <v>1119</v>
+        <v>1046</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -8703,54 +8727,54 @@
         <v>128</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F92">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G92" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H92">
-        <v>6.66</v>
+        <v>5.64</v>
       </c>
       <c r="I92">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="J92" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K92" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="P92" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="S92" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="T92" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="AG92" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="AH92" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:35">
       <c r="A93" s="1">
-        <v>1186</v>
+        <v>1119</v>
       </c>
       <c r="B93" t="s">
         <v>37</v>
@@ -8759,57 +8783,54 @@
         <v>129</v>
       </c>
       <c r="D93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F93">
         <v>2.6</v>
       </c>
       <c r="G93" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H93">
-        <v>7.17</v>
+        <v>6.66</v>
       </c>
       <c r="I93">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="J93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K93" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="P93" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S93" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="T93" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="AG93" t="s">
-        <v>956</v>
+        <v>552</v>
       </c>
       <c r="AH93" t="s">
-        <v>969</v>
-      </c>
-      <c r="AI93" t="s">
-        <v>976</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:35">
       <c r="A94" s="1">
-        <v>1261</v>
+        <v>1186</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -8818,57 +8839,57 @@
         <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F94">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="G94" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H94">
-        <v>9.220000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="I94">
         <v>2011</v>
       </c>
       <c r="J94" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K94" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P94" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="S94" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="T94" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="AG94" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="AH94" t="s">
-        <v>543</v>
+        <v>977</v>
       </c>
       <c r="AI94" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="1">
-        <v>1301</v>
+        <v>1261</v>
       </c>
       <c r="B95" t="s">
         <v>37</v>
@@ -8877,54 +8898,57 @@
         <v>131</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F95">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="G95" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H95">
-        <v>5.77</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I95">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="J95" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K95" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P95" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="S95" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="T95" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="AG95" t="s">
-        <v>585</v>
+        <v>965</v>
       </c>
       <c r="AH95" t="s">
-        <v>546</v>
+        <v>549</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="96" spans="1:35">
       <c r="A96" s="1">
-        <v>1322</v>
+        <v>1301</v>
       </c>
       <c r="B96" t="s">
         <v>37</v>
@@ -8933,57 +8957,54 @@
         <v>132</v>
       </c>
       <c r="D96" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F96">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="G96" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H96">
-        <v>9</v>
+        <v>5.77</v>
       </c>
       <c r="I96">
         <v>2012</v>
       </c>
       <c r="J96" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K96" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P96" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="S96" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="T96" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="AG96" t="s">
-        <v>958</v>
+        <v>520</v>
       </c>
       <c r="AH96" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI96" t="s">
-        <v>978</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:35">
       <c r="A97" s="1">
-        <v>1355</v>
+        <v>1322</v>
       </c>
       <c r="B97" t="s">
         <v>37</v>
@@ -8992,51 +9013,57 @@
         <v>133</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F97">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H97">
-        <v>8.44</v>
+        <v>9</v>
       </c>
       <c r="I97">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J97" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K97" t="s">
-        <v>483</v>
+        <v>487</v>
+      </c>
+      <c r="P97" t="s">
+        <v>678</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S97" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="T97" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="AG97" t="s">
+        <v>966</v>
+      </c>
+      <c r="AH97" t="s">
         <v>549</v>
       </c>
-      <c r="AH97" t="s">
-        <v>955</v>
+      <c r="AI97" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="98" spans="1:35">
       <c r="A98" s="1">
-        <v>1427</v>
+        <v>1355</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -9045,54 +9072,51 @@
         <v>134</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F98">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="G98" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H98">
-        <v>7.6</v>
+        <v>8.44</v>
       </c>
       <c r="I98">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="J98" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K98" t="s">
-        <v>484</v>
-      </c>
-      <c r="P98" t="s">
-        <v>673</v>
+        <v>488</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S98" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="T98" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="AG98" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="AH98" t="s">
-        <v>543</v>
+        <v>963</v>
       </c>
     </row>
     <row r="99" spans="1:35">
       <c r="A99" s="1">
-        <v>1498</v>
+        <v>1427</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -9101,57 +9125,54 @@
         <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F99">
-        <v>3.4</v>
+        <v>1.76</v>
       </c>
       <c r="G99" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H99">
-        <v>8.77</v>
+        <v>7.6</v>
       </c>
       <c r="I99">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="J99" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K99" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P99" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="Q99">
         <v>0</v>
       </c>
       <c r="R99" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S99" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="T99" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="AG99" t="s">
-        <v>959</v>
+        <v>581</v>
       </c>
       <c r="AH99" t="s">
-        <v>970</v>
-      </c>
-      <c r="AI99" t="s">
-        <v>979</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:35">
       <c r="A100" s="1">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="B100" t="s">
         <v>37</v>
@@ -9160,54 +9181,57 @@
         <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F100">
-        <v>2.64</v>
+        <v>3.4</v>
       </c>
       <c r="G100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H100">
-        <v>8.720000000000001</v>
+        <v>8.77</v>
       </c>
       <c r="I100">
         <v>2012</v>
       </c>
       <c r="J100" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K100" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P100" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="Q100">
         <v>0</v>
       </c>
       <c r="R100" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S100" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="T100" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="AG100" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="AH100" t="s">
-        <v>546</v>
+        <v>978</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="101" spans="1:35">
       <c r="A101" s="1">
-        <v>1676</v>
+        <v>1513</v>
       </c>
       <c r="B101" t="s">
         <v>37</v>
@@ -9216,54 +9240,54 @@
         <v>137</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E101" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F101">
-        <v>4.1</v>
+        <v>2.64</v>
       </c>
       <c r="G101" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H101">
-        <v>6.28</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I101">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J101" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K101" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P101" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="Q101">
         <v>0</v>
       </c>
       <c r="R101" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="S101" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="T101" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="AG101" t="s">
-        <v>585</v>
+        <v>968</v>
       </c>
       <c r="AH101" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:35">
       <c r="A102" s="1">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="B102" t="s">
         <v>37</v>
@@ -9272,54 +9296,54 @@
         <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F102">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="G102" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H102">
-        <v>8.52</v>
+        <v>6.28</v>
       </c>
       <c r="I102">
         <v>2013</v>
       </c>
       <c r="J102" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K102" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P102" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="Q102">
         <v>0</v>
       </c>
       <c r="R102" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="S102" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="T102" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="AG102" t="s">
-        <v>961</v>
+        <v>520</v>
       </c>
       <c r="AH102" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:35">
       <c r="A103" s="1">
-        <v>1743</v>
+        <v>1682</v>
       </c>
       <c r="B103" t="s">
         <v>37</v>
@@ -9328,54 +9352,54 @@
         <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F103">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="G103" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="H103">
-        <v>5.86</v>
+        <v>8.52</v>
       </c>
       <c r="I103">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="J103" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K103" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P103" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="Q103">
         <v>0</v>
       </c>
       <c r="R103" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="S103" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="T103" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="AG103" t="s">
-        <v>954</v>
+        <v>969</v>
       </c>
       <c r="AH103" t="s">
-        <v>968</v>
+        <v>552</v>
       </c>
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="1">
-        <v>1834</v>
+        <v>1743</v>
       </c>
       <c r="B104" t="s">
         <v>37</v>
@@ -9384,54 +9408,54 @@
         <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E104" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F104">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="G104" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="H104">
-        <v>8.220000000000001</v>
+        <v>5.86</v>
       </c>
       <c r="I104">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="J104" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K104" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P104" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="S104" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="T104" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="AG104" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="AH104" t="s">
-        <v>546</v>
+        <v>976</v>
       </c>
     </row>
     <row r="105" spans="1:35">
       <c r="A105" s="1">
-        <v>1923</v>
+        <v>1834</v>
       </c>
       <c r="B105" t="s">
         <v>37</v>
@@ -9440,57 +9464,54 @@
         <v>141</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F105">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="G105" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="H105">
-        <v>6.31</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I105">
         <v>2015</v>
       </c>
       <c r="J105" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K105" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="P105" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="Q105">
         <v>0</v>
       </c>
       <c r="R105" t="s">
-        <v>696</v>
+        <v>725</v>
       </c>
       <c r="S105" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="T105" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="AG105" t="s">
-        <v>575</v>
+        <v>963</v>
       </c>
       <c r="AH105" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI105" t="s">
-        <v>975</v>
+        <v>552</v>
       </c>
     </row>
     <row r="106" spans="1:35">
       <c r="A106" s="1">
-        <v>1935</v>
+        <v>1923</v>
       </c>
       <c r="B106" t="s">
         <v>37</v>
@@ -9499,54 +9520,57 @@
         <v>142</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F106">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G106" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H106">
-        <v>9.42</v>
+        <v>6.31</v>
       </c>
       <c r="I106">
         <v>2015</v>
       </c>
       <c r="J106" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K106" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P106" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S106" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="T106" t="s">
-        <v>915</v>
+        <v>938</v>
       </c>
       <c r="AG106" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AH106" t="s">
-        <v>546</v>
+        <v>549</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="107" spans="1:35">
       <c r="A107" s="1">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="B107" t="s">
         <v>37</v>
@@ -9555,54 +9579,54 @@
         <v>143</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F107">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="G107" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H107">
-        <v>7.18</v>
+        <v>9.42</v>
       </c>
       <c r="I107">
         <v>2015</v>
       </c>
       <c r="J107" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K107" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P107" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S107" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="T107" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AG107" t="s">
-        <v>955</v>
+        <v>520</v>
       </c>
       <c r="AH107" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108" spans="1:35">
       <c r="A108" s="1">
-        <v>1958</v>
+        <v>1940</v>
       </c>
       <c r="B108" t="s">
         <v>37</v>
@@ -9611,57 +9635,54 @@
         <v>144</v>
       </c>
       <c r="D108" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F108">
-        <v>2.7</v>
+        <v>2.19</v>
       </c>
       <c r="G108" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H108">
-        <v>7.99</v>
+        <v>7.18</v>
       </c>
       <c r="I108">
         <v>2015</v>
       </c>
       <c r="J108" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K108" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P108" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="Q108">
         <v>0</v>
       </c>
       <c r="R108" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S108" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="T108" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="AG108" t="s">
-        <v>575</v>
+        <v>963</v>
       </c>
       <c r="AH108" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>980</v>
+        <v>552</v>
       </c>
     </row>
     <row r="109" spans="1:35">
       <c r="A109" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B109" t="s">
         <v>37</v>
@@ -9670,57 +9691,57 @@
         <v>145</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E109" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F109">
-        <v>2.24</v>
+        <v>2.7</v>
       </c>
       <c r="G109" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H109">
-        <v>7.3</v>
+        <v>7.99</v>
       </c>
       <c r="I109">
         <v>2015</v>
       </c>
       <c r="J109" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K109" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P109" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="Q109">
         <v>0</v>
       </c>
       <c r="R109" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S109" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="T109" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="AG109" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AH109" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AI109" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="1">
-        <v>1992</v>
+        <v>1959</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
@@ -9729,69 +9750,57 @@
         <v>146</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F110">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="G110" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H110">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="I110">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J110" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K110" t="s">
-        <v>496</v>
+        <v>500</v>
+      </c>
+      <c r="P110" t="s">
+        <v>689</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="S110" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="T110" t="s">
-        <v>933</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
-      <c r="AB110">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="AG110" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AH110" t="s">
-        <v>546</v>
+        <v>549</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="111" spans="1:35">
       <c r="A111" s="1">
-        <v>2055</v>
+        <v>1992</v>
       </c>
       <c r="B111" t="s">
         <v>37</v>
@@ -9800,43 +9809,40 @@
         <v>147</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="G111" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="H111">
-        <v>8.52</v>
+        <v>5.8</v>
       </c>
       <c r="I111">
         <v>2016</v>
       </c>
       <c r="J111" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K111" t="s">
-        <v>497</v>
-      </c>
-      <c r="P111" t="s">
-        <v>684</v>
+        <v>501</v>
       </c>
       <c r="Q111">
         <v>0</v>
       </c>
       <c r="R111" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="S111" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="T111" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="V111">
         <v>0</v>
@@ -9857,18 +9863,15 @@
         <v>0</v>
       </c>
       <c r="AG111" t="s">
-        <v>962</v>
+        <v>520</v>
       </c>
       <c r="AH111" t="s">
-        <v>971</v>
-      </c>
-      <c r="AI111" t="s">
-        <v>982</v>
+        <v>552</v>
       </c>
     </row>
     <row r="112" spans="1:35">
       <c r="A112" s="1">
-        <v>2104</v>
+        <v>2055</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
@@ -9877,43 +9880,43 @@
         <v>148</v>
       </c>
       <c r="D112" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F112">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="H112">
-        <v>8.58</v>
+        <v>8.52</v>
       </c>
       <c r="I112">
         <v>2016</v>
       </c>
       <c r="J112" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K112" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P112" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="Q112">
         <v>0</v>
       </c>
       <c r="R112" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="S112" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="T112" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="V112">
         <v>0</v>
@@ -9934,15 +9937,18 @@
         <v>0</v>
       </c>
       <c r="AG112" t="s">
-        <v>585</v>
+        <v>970</v>
       </c>
       <c r="AH112" t="s">
-        <v>546</v>
+        <v>979</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="113" spans="1:35">
       <c r="A113" s="1">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="B113" t="s">
         <v>37</v>
@@ -9951,43 +9957,43 @@
         <v>149</v>
       </c>
       <c r="D113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E113" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F113">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="G113" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H113">
-        <v>9.69</v>
+        <v>8.58</v>
       </c>
       <c r="I113">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J113" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K113" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P113" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="S113" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="T113" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -10008,18 +10014,15 @@
         <v>0</v>
       </c>
       <c r="AG113" t="s">
-        <v>575</v>
+        <v>520</v>
       </c>
       <c r="AH113" t="s">
-        <v>543</v>
-      </c>
-      <c r="AI113" t="s">
-        <v>983</v>
+        <v>552</v>
       </c>
     </row>
     <row r="114" spans="1:35">
       <c r="A114" s="1">
-        <v>2171</v>
+        <v>2110</v>
       </c>
       <c r="B114" t="s">
         <v>37</v>
@@ -10028,43 +10031,43 @@
         <v>150</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E114" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F114">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="G114" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H114">
-        <v>9.52</v>
+        <v>9.69</v>
       </c>
       <c r="I114">
         <v>2017</v>
       </c>
       <c r="J114" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K114" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P114" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S114" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="T114" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="V114">
         <v>0</v>
@@ -10085,15 +10088,18 @@
         <v>0</v>
       </c>
       <c r="AG114" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AH114" t="s">
-        <v>543</v>
+        <v>549</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="115" spans="1:35">
       <c r="A115" s="1">
-        <v>2307</v>
+        <v>2171</v>
       </c>
       <c r="B115" t="s">
         <v>37</v>
@@ -10102,43 +10108,43 @@
         <v>151</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E115" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="G115" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H115">
-        <v>6.73</v>
+        <v>9.52</v>
       </c>
       <c r="I115">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J115" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K115" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P115" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S115" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="T115" t="s">
-        <v>915</v>
+        <v>945</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -10159,18 +10165,15 @@
         <v>0</v>
       </c>
       <c r="AG115" t="s">
-        <v>954</v>
+        <v>581</v>
       </c>
       <c r="AH115" t="s">
-        <v>968</v>
-      </c>
-      <c r="AI115" t="s">
-        <v>984</v>
+        <v>549</v>
       </c>
     </row>
     <row r="116" spans="1:35">
       <c r="A116" s="1">
-        <v>2322</v>
+        <v>2307</v>
       </c>
       <c r="B116" t="s">
         <v>37</v>
@@ -10179,43 +10182,43 @@
         <v>152</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E116" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F116">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H116">
-        <v>7.24</v>
+        <v>6.73</v>
       </c>
       <c r="I116">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J116" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K116" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P116" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S116" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="T116" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -10236,15 +10239,18 @@
         <v>0</v>
       </c>
       <c r="AG116" t="s">
-        <v>585</v>
+        <v>962</v>
       </c>
       <c r="AH116" t="s">
-        <v>546</v>
+        <v>976</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="117" spans="1:35">
       <c r="A117" s="1">
-        <v>2383</v>
+        <v>2322</v>
       </c>
       <c r="B117" t="s">
         <v>37</v>
@@ -10253,40 +10259,43 @@
         <v>153</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F117">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G117" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H117">
-        <v>7.6</v>
+        <v>7.24</v>
       </c>
       <c r="I117">
         <v>2017</v>
       </c>
       <c r="J117" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K117" t="s">
-        <v>503</v>
+        <v>507</v>
+      </c>
+      <c r="P117" t="s">
+        <v>695</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S117" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="T117" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -10307,15 +10316,15 @@
         <v>0</v>
       </c>
       <c r="AG117" t="s">
-        <v>950</v>
+        <v>520</v>
       </c>
       <c r="AH117" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="1">
-        <v>2414</v>
+        <v>2383</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -10324,43 +10333,40 @@
         <v>154</v>
       </c>
       <c r="D118" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F118">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="G118" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H118">
         <v>7.6</v>
       </c>
       <c r="I118">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J118" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K118" t="s">
-        <v>504</v>
-      </c>
-      <c r="P118" t="s">
-        <v>690</v>
+        <v>508</v>
       </c>
       <c r="Q118">
         <v>0</v>
       </c>
       <c r="R118" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S118" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="T118" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="V118">
         <v>0</v>
@@ -10381,15 +10387,15 @@
         <v>0</v>
       </c>
       <c r="AG118" t="s">
-        <v>585</v>
+        <v>958</v>
       </c>
       <c r="AH118" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="119" spans="1:35">
       <c r="A119" s="1">
-        <v>2468</v>
+        <v>2414</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -10398,43 +10404,43 @@
         <v>155</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E119" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>1.42</v>
       </c>
       <c r="G119" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H119">
-        <v>8.09</v>
+        <v>7.6</v>
       </c>
       <c r="I119">
         <v>2018</v>
       </c>
       <c r="J119" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K119" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P119" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="Q119">
         <v>0</v>
       </c>
       <c r="R119" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S119" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="T119" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="V119">
         <v>0</v>
@@ -10455,15 +10461,15 @@
         <v>0</v>
       </c>
       <c r="AG119" t="s">
-        <v>947</v>
+        <v>520</v>
       </c>
       <c r="AH119" t="s">
-        <v>966</v>
+        <v>552</v>
       </c>
     </row>
     <row r="120" spans="1:35">
       <c r="A120" s="1">
-        <v>2642</v>
+        <v>2468</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -10472,40 +10478,43 @@
         <v>156</v>
       </c>
       <c r="D120" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E120" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F120">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H120">
-        <v>8.789999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="I120">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J120" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K120" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P120" t="s">
-        <v>692</v>
+        <v>697</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
       </c>
       <c r="R120" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S120" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="T120" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -10513,25 +10522,28 @@
       <c r="W120">
         <v>0</v>
       </c>
-      <c r="AA120">
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
         <v>0</v>
       </c>
       <c r="AB120">
         <v>0</v>
       </c>
       <c r="AG120" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="AH120" t="s">
-        <v>972</v>
-      </c>
-      <c r="AI120" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="121" spans="1:35">
       <c r="A121" s="1">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -10540,40 +10552,40 @@
         <v>157</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E121" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F121">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="G121" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H121">
-        <v>8.31</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I121">
         <v>2019</v>
       </c>
       <c r="J121" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K121" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="P121" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="R121" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="S121" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="T121" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -10588,18 +10600,18 @@
         <v>0</v>
       </c>
       <c r="AG121" t="s">
-        <v>954</v>
+        <v>971</v>
       </c>
       <c r="AH121" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="AI121" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="122" spans="1:35">
       <c r="A122" s="1">
-        <v>2780</v>
+        <v>2643</v>
       </c>
       <c r="B122" t="s">
         <v>37</v>
@@ -10608,37 +10620,40 @@
         <v>158</v>
       </c>
       <c r="D122" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E122" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F122">
-        <v>2.34</v>
+        <v>2.9</v>
       </c>
       <c r="G122" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H122">
-        <v>8.02</v>
+        <v>8.31</v>
       </c>
       <c r="I122">
         <v>2019</v>
       </c>
       <c r="J122" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K122" t="s">
-        <v>508</v>
+        <v>512</v>
+      </c>
+      <c r="P122" t="s">
+        <v>698</v>
       </c>
       <c r="R122" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="S122" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="T122" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="V122">
         <v>0</v>
@@ -10653,15 +10668,18 @@
         <v>0</v>
       </c>
       <c r="AG122" t="s">
-        <v>585</v>
+        <v>962</v>
       </c>
       <c r="AH122" t="s">
-        <v>546</v>
+        <v>976</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="123" spans="1:35">
       <c r="A123" s="1">
-        <v>2788</v>
+        <v>2780</v>
       </c>
       <c r="B123" t="s">
         <v>37</v>
@@ -10670,40 +10688,37 @@
         <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E123" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F123">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H123">
-        <v>6.6</v>
+        <v>8.02</v>
       </c>
       <c r="I123">
         <v>2019</v>
       </c>
       <c r="J123" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K123" t="s">
-        <v>509</v>
-      </c>
-      <c r="P123" t="s">
-        <v>693</v>
+        <v>513</v>
       </c>
       <c r="R123" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="S123" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="T123" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="V123">
         <v>0</v>
@@ -10718,15 +10733,15 @@
         <v>0</v>
       </c>
       <c r="AG123" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="AH123" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="124" spans="1:35">
       <c r="A124" s="1">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -10735,40 +10750,40 @@
         <v>160</v>
       </c>
       <c r="D124" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E124" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F124">
-        <v>2.11</v>
+        <v>2.36</v>
       </c>
       <c r="G124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H124">
-        <v>7.19</v>
+        <v>6.6</v>
       </c>
       <c r="I124">
         <v>2019</v>
       </c>
       <c r="J124" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K124" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P124" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="R124" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="S124" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="T124" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="V124">
         <v>0</v>
@@ -10783,15 +10798,15 @@
         <v>0</v>
       </c>
       <c r="AG124" t="s">
-        <v>955</v>
+        <v>537</v>
       </c>
       <c r="AH124" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="125" spans="1:35">
       <c r="A125" s="1">
-        <v>2807</v>
+        <v>2789</v>
       </c>
       <c r="B125" t="s">
         <v>37</v>
@@ -10800,40 +10815,40 @@
         <v>161</v>
       </c>
       <c r="D125" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E125" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F125">
-        <v>3.3</v>
+        <v>2.11</v>
       </c>
       <c r="G125" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H125">
-        <v>6.68</v>
+        <v>7.19</v>
       </c>
       <c r="I125">
         <v>2019</v>
       </c>
       <c r="J125" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K125" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P125" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="R125" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="S125" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="T125" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -10848,10 +10863,75 @@
         <v>0</v>
       </c>
       <c r="AG125" t="s">
-        <v>512</v>
+        <v>963</v>
       </c>
       <c r="AH125" t="s">
-        <v>973</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35">
+      <c r="A126" s="1">
+        <v>2807</v>
+      </c>
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126">
+        <v>3.3</v>
+      </c>
+      <c r="G126" t="s">
+        <v>283</v>
+      </c>
+      <c r="H126">
+        <v>6.68</v>
+      </c>
+      <c r="I126">
+        <v>2019</v>
+      </c>
+      <c r="J126" t="s">
+        <v>399</v>
+      </c>
+      <c r="K126" t="s">
+        <v>516</v>
+      </c>
+      <c r="P126" t="s">
+        <v>700</v>
+      </c>
+      <c r="R126" t="s">
+        <v>702</v>
+      </c>
+      <c r="S126" t="s">
+        <v>842</v>
+      </c>
+      <c r="T126" t="s">
+        <v>954</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
